--- a/biology/Botanique/Phlegmariurus_austroecuadoricus/Phlegmariurus_austroecuadoricus.xlsx
+++ b/biology/Botanique/Phlegmariurus_austroecuadoricus/Phlegmariurus_austroecuadoricus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phlegmariurus austroecuadoricus est une espèce de plantes de la famille des Lycopodiaceae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phlegmariurus austroecuadoricus est une espèce de plantes de la famille des Lycopodiaceae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phlegmariurus austroecuadoricus est endémique de l'Équateur. Ses aires de répartition naturelles sont des forêts de montagne subtropicales ou tropicales humides et des prairies subtropicales ou tropicales de haute altitude. Cette espèce est menacée par la perte de son habitat naturel et est classée vulnérable sur la liste rouge de l'UICN[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phlegmariurus austroecuadoricus est endémique de l'Équateur. Ses aires de répartition naturelles sont des forêts de montagne subtropicales ou tropicales humides et des prairies subtropicales ou tropicales de haute altitude. Cette espèce est menacée par la perte de son habitat naturel et est classée vulnérable sur la liste rouge de l'UICN.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Phlegmariurus austroecuadoricus (B.Øllg. (d)) B.Øllg.[3].
-L'espèce a été initialement classée dans le genre Huperzia sous le basionyme Huperzia austroecuadorica B.Øllg.[3].
-Phlegmariurus austroecuadoricus a pour synonyme[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Phlegmariurus austroecuadoricus (B.Øllg. (d)) B.Øllg..
+L'espèce a été initialement classée dans le genre Huperzia sous le basionyme Huperzia austroecuadorica B.Øllg..
+Phlegmariurus austroecuadoricus a pour synonyme :
 Huperzia austroecuadorica B.Øllg.</t>
         </is>
       </c>
